--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:11:22-05:00</t>
+    <t>2023-05-04T21:49:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:49:21-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -442,9 +451,6 @@
   </si>
   <si>
     <t>Mylotarg</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -572,10 +578,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -679,35 +685,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -729,490 +743,490 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-11-22T12:33:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -442,9 +451,6 @@
   </si>
   <si>
     <t>Mylotarg</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -572,10 +578,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -679,35 +685,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -729,490 +743,490 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from RxNorm" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2025-02-18T16:25:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -442,9 +451,6 @@
   </si>
   <si>
     <t>Mylotarg</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -572,10 +578,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -679,35 +685,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -729,490 +743,490 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-med-prior-exposure-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from RxNorm" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T16:25:42-06:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,385 +72,379 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
-  </si>
-  <si>
-    <t>Bob Milius (bmilius@nmdp.org)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Prior Exposure: Potential Study Eligibility</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>10473</t>
+  </si>
+  <si>
+    <t>thiotepa</t>
+  </si>
+  <si>
+    <t>1156487</t>
+  </si>
+  <si>
+    <t>thiotepa Injectable Product</t>
+  </si>
+  <si>
+    <t>1185673</t>
+  </si>
+  <si>
+    <t>Mylotarg Injectable Product</t>
+  </si>
+  <si>
+    <t>1294580</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin</t>
+  </si>
+  <si>
+    <t>1294581</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 1 MG/ML</t>
+  </si>
+  <si>
+    <t>1294582</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin Injectable Product</t>
+  </si>
+  <si>
+    <t>1294583</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin Injectable Solution</t>
+  </si>
+  <si>
+    <t>1294584</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 1 MG/ML Injectable Solution</t>
+  </si>
+  <si>
+    <t>1366537</t>
+  </si>
+  <si>
+    <t>Tepadina</t>
+  </si>
+  <si>
+    <t>1597258</t>
+  </si>
+  <si>
+    <t>blinatumomab</t>
+  </si>
+  <si>
+    <t>1597260</t>
+  </si>
+  <si>
+    <t>blinatumomab Injectable Product</t>
+  </si>
+  <si>
+    <t>1597262</t>
+  </si>
+  <si>
+    <t>blinatumomab 0.035 MG Injection</t>
+  </si>
+  <si>
+    <t>1597263</t>
+  </si>
+  <si>
+    <t>Blincyto</t>
+  </si>
+  <si>
+    <t>1597266</t>
+  </si>
+  <si>
+    <t>Blincyto Injectable Product</t>
+  </si>
+  <si>
+    <t>1597267</t>
+  </si>
+  <si>
+    <t>blinatumomab 0.035 MG Injection [Blincyto]</t>
+  </si>
+  <si>
+    <t>1651249</t>
+  </si>
+  <si>
+    <t>blinatumomab 0.035 MG</t>
+  </si>
+  <si>
+    <t>1651250</t>
+  </si>
+  <si>
+    <t>blinatumomab Injection</t>
+  </si>
+  <si>
+    <t>1651252</t>
+  </si>
+  <si>
+    <t>blinatumomab 0.035 MG [Blincyto]</t>
+  </si>
+  <si>
+    <t>1651253</t>
+  </si>
+  <si>
+    <t>blinatumomab Injection [Blincyto]</t>
+  </si>
+  <si>
+    <t>1660002</t>
+  </si>
+  <si>
+    <t>thiotepa 100 MG</t>
+  </si>
+  <si>
+    <t>1660003</t>
+  </si>
+  <si>
+    <t>thiotepa Injection</t>
+  </si>
+  <si>
+    <t>1660004</t>
+  </si>
+  <si>
+    <t>thiotepa 100 MG Injection</t>
+  </si>
+  <si>
+    <t>1660008</t>
+  </si>
+  <si>
+    <t>thiotepa 15 MG</t>
+  </si>
+  <si>
+    <t>1660009</t>
+  </si>
+  <si>
+    <t>thiotepa 15 MG Injection</t>
+  </si>
+  <si>
+    <t>1919206</t>
+  </si>
+  <si>
+    <t>thiotepa 100 MG [Tepadina]</t>
+  </si>
+  <si>
+    <t>1919207</t>
+  </si>
+  <si>
+    <t>thiotepa Injection [Tepadina]</t>
+  </si>
+  <si>
+    <t>1919208</t>
+  </si>
+  <si>
+    <t>Tepadina Injectable Product</t>
+  </si>
+  <si>
+    <t>1919209</t>
+  </si>
+  <si>
+    <t>thiotepa 100 MG Injection [Tepadina]</t>
+  </si>
+  <si>
+    <t>1919210</t>
+  </si>
+  <si>
+    <t>thiotepa 15 MG [Tepadina]</t>
+  </si>
+  <si>
+    <t>1919211</t>
+  </si>
+  <si>
+    <t>thiotepa 15 MG Injection [Tepadina]</t>
+  </si>
+  <si>
+    <t>1942950</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin</t>
+  </si>
+  <si>
+    <t>1942951</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin 0.9 MG</t>
+  </si>
+  <si>
+    <t>1942952</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin Injectable Product</t>
+  </si>
+  <si>
+    <t>1942953</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin Injection</t>
+  </si>
+  <si>
+    <t>1942954</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin 0.9 MG Injection</t>
+  </si>
+  <si>
+    <t>1942955</t>
+  </si>
+  <si>
+    <t>Besponsa</t>
+  </si>
+  <si>
+    <t>1942956</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin 0.9 MG [Besponsa]</t>
+  </si>
+  <si>
+    <t>1942957</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin Injection [Besponsa]</t>
+  </si>
+  <si>
+    <t>1942958</t>
+  </si>
+  <si>
+    <t>Besponsa Injectable Product</t>
+  </si>
+  <si>
+    <t>1942959</t>
+  </si>
+  <si>
+    <t>inotuzumab ozogamicin 0.9 MG Injection [Besponsa]</t>
+  </si>
+  <si>
+    <t>1944699</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 4.5 MG</t>
+  </si>
+  <si>
+    <t>1944700</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin Injection</t>
+  </si>
+  <si>
+    <t>1944701</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 4.5 MG Injection</t>
+  </si>
+  <si>
+    <t>1944702</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 4.5 MG [Mylotarg]</t>
+  </si>
+  <si>
+    <t>1944703</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin Injection [Mylotarg]</t>
+  </si>
+  <si>
+    <t>1944704</t>
+  </si>
+  <si>
+    <t>gemtuzumab ozogamicin 4.5 MG Injection [Mylotarg]</t>
+  </si>
+  <si>
+    <t>2054068</t>
+  </si>
+  <si>
+    <t>mogamulizumab</t>
+  </si>
+  <si>
+    <t>2054077</t>
+  </si>
+  <si>
+    <t>mogamulizumab-kpkc</t>
+  </si>
+  <si>
+    <t>2054078</t>
+  </si>
+  <si>
+    <t>mogamulizumab-kpkc 4 MG/ML</t>
+  </si>
+  <si>
+    <t>2054079</t>
+  </si>
+  <si>
+    <t>mogamulizumab Injectable Product</t>
+  </si>
+  <si>
+    <t>2054080</t>
+  </si>
+  <si>
+    <t>mogamulizumab Injection</t>
+  </si>
+  <si>
+    <t>2054081</t>
+  </si>
+  <si>
+    <t>5 ML mogamulizumab-kpkc 4 MG/ML Injection</t>
+  </si>
+  <si>
+    <t>2054082</t>
+  </si>
+  <si>
+    <t>Poteligeo</t>
+  </si>
+  <si>
+    <t>2054083</t>
+  </si>
+  <si>
+    <t>mogamulizumab-kpkc 4 MG/ML [Poteligeo]</t>
+  </si>
+  <si>
+    <t>2054084</t>
+  </si>
+  <si>
+    <t>mogamulizumab Injection [Poteligeo]</t>
+  </si>
+  <si>
+    <t>2054085</t>
+  </si>
+  <si>
+    <t>Poteligeo Injectable Product</t>
+  </si>
+  <si>
+    <t>2054086</t>
+  </si>
+  <si>
+    <t>5 ML mogamulizumab-kpkc 4 MG/ML Injection [Poteligeo]</t>
+  </si>
+  <si>
+    <t>261585</t>
+  </si>
+  <si>
+    <t>Mylotarg</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Prior Exposure: Potential Study Eligibility</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>10473</t>
-  </si>
-  <si>
-    <t>thiotepa</t>
-  </si>
-  <si>
-    <t>1156487</t>
-  </si>
-  <si>
-    <t>thiotepa Injectable Product</t>
-  </si>
-  <si>
-    <t>1185673</t>
-  </si>
-  <si>
-    <t>Mylotarg Injectable Product</t>
-  </si>
-  <si>
-    <t>1294580</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin</t>
-  </si>
-  <si>
-    <t>1294581</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 1 MG/ML</t>
-  </si>
-  <si>
-    <t>1294582</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin Injectable Product</t>
-  </si>
-  <si>
-    <t>1294583</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin Injectable Solution</t>
-  </si>
-  <si>
-    <t>1294584</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 1 MG/ML Injectable Solution</t>
-  </si>
-  <si>
-    <t>1366537</t>
-  </si>
-  <si>
-    <t>Tepadina</t>
-  </si>
-  <si>
-    <t>1597258</t>
-  </si>
-  <si>
-    <t>blinatumomab</t>
-  </si>
-  <si>
-    <t>1597260</t>
-  </si>
-  <si>
-    <t>blinatumomab Injectable Product</t>
-  </si>
-  <si>
-    <t>1597262</t>
-  </si>
-  <si>
-    <t>blinatumomab 0.035 MG Injection</t>
-  </si>
-  <si>
-    <t>1597263</t>
-  </si>
-  <si>
-    <t>Blincyto</t>
-  </si>
-  <si>
-    <t>1597266</t>
-  </si>
-  <si>
-    <t>Blincyto Injectable Product</t>
-  </si>
-  <si>
-    <t>1597267</t>
-  </si>
-  <si>
-    <t>blinatumomab 0.035 MG Injection [Blincyto]</t>
-  </si>
-  <si>
-    <t>1651249</t>
-  </si>
-  <si>
-    <t>blinatumomab 0.035 MG</t>
-  </si>
-  <si>
-    <t>1651250</t>
-  </si>
-  <si>
-    <t>blinatumomab Injection</t>
-  </si>
-  <si>
-    <t>1651252</t>
-  </si>
-  <si>
-    <t>blinatumomab 0.035 MG [Blincyto]</t>
-  </si>
-  <si>
-    <t>1651253</t>
-  </si>
-  <si>
-    <t>blinatumomab Injection [Blincyto]</t>
-  </si>
-  <si>
-    <t>1660002</t>
-  </si>
-  <si>
-    <t>thiotepa 100 MG</t>
-  </si>
-  <si>
-    <t>1660003</t>
-  </si>
-  <si>
-    <t>thiotepa Injection</t>
-  </si>
-  <si>
-    <t>1660004</t>
-  </si>
-  <si>
-    <t>thiotepa 100 MG Injection</t>
-  </si>
-  <si>
-    <t>1660008</t>
-  </si>
-  <si>
-    <t>thiotepa 15 MG</t>
-  </si>
-  <si>
-    <t>1660009</t>
-  </si>
-  <si>
-    <t>thiotepa 15 MG Injection</t>
-  </si>
-  <si>
-    <t>1919206</t>
-  </si>
-  <si>
-    <t>thiotepa 100 MG [Tepadina]</t>
-  </si>
-  <si>
-    <t>1919207</t>
-  </si>
-  <si>
-    <t>thiotepa Injection [Tepadina]</t>
-  </si>
-  <si>
-    <t>1919208</t>
-  </si>
-  <si>
-    <t>Tepadina Injectable Product</t>
-  </si>
-  <si>
-    <t>1919209</t>
-  </si>
-  <si>
-    <t>thiotepa 100 MG Injection [Tepadina]</t>
-  </si>
-  <si>
-    <t>1919210</t>
-  </si>
-  <si>
-    <t>thiotepa 15 MG [Tepadina]</t>
-  </si>
-  <si>
-    <t>1919211</t>
-  </si>
-  <si>
-    <t>thiotepa 15 MG Injection [Tepadina]</t>
-  </si>
-  <si>
-    <t>1942950</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin</t>
-  </si>
-  <si>
-    <t>1942951</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin 0.9 MG</t>
-  </si>
-  <si>
-    <t>1942952</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin Injectable Product</t>
-  </si>
-  <si>
-    <t>1942953</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin Injection</t>
-  </si>
-  <si>
-    <t>1942954</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin 0.9 MG Injection</t>
-  </si>
-  <si>
-    <t>1942955</t>
-  </si>
-  <si>
-    <t>Besponsa</t>
-  </si>
-  <si>
-    <t>1942956</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin 0.9 MG [Besponsa]</t>
-  </si>
-  <si>
-    <t>1942957</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin Injection [Besponsa]</t>
-  </si>
-  <si>
-    <t>1942958</t>
-  </si>
-  <si>
-    <t>Besponsa Injectable Product</t>
-  </si>
-  <si>
-    <t>1942959</t>
-  </si>
-  <si>
-    <t>inotuzumab ozogamicin 0.9 MG Injection [Besponsa]</t>
-  </si>
-  <si>
-    <t>1944699</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 4.5 MG</t>
-  </si>
-  <si>
-    <t>1944700</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin Injection</t>
-  </si>
-  <si>
-    <t>1944701</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 4.5 MG Injection</t>
-  </si>
-  <si>
-    <t>1944702</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 4.5 MG [Mylotarg]</t>
-  </si>
-  <si>
-    <t>1944703</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin Injection [Mylotarg]</t>
-  </si>
-  <si>
-    <t>1944704</t>
-  </si>
-  <si>
-    <t>gemtuzumab ozogamicin 4.5 MG Injection [Mylotarg]</t>
-  </si>
-  <si>
-    <t>2054068</t>
-  </si>
-  <si>
-    <t>mogamulizumab</t>
-  </si>
-  <si>
-    <t>2054077</t>
-  </si>
-  <si>
-    <t>mogamulizumab-kpkc</t>
-  </si>
-  <si>
-    <t>2054078</t>
-  </si>
-  <si>
-    <t>mogamulizumab-kpkc 4 MG/ML</t>
-  </si>
-  <si>
-    <t>2054079</t>
-  </si>
-  <si>
-    <t>mogamulizumab Injectable Product</t>
-  </si>
-  <si>
-    <t>2054080</t>
-  </si>
-  <si>
-    <t>mogamulizumab Injection</t>
-  </si>
-  <si>
-    <t>2054081</t>
-  </si>
-  <si>
-    <t>5 ML mogamulizumab-kpkc 4 MG/ML Injection</t>
-  </si>
-  <si>
-    <t>2054082</t>
-  </si>
-  <si>
-    <t>Poteligeo</t>
-  </si>
-  <si>
-    <t>2054083</t>
-  </si>
-  <si>
-    <t>mogamulizumab-kpkc 4 MG/ML [Poteligeo]</t>
-  </si>
-  <si>
-    <t>2054084</t>
-  </si>
-  <si>
-    <t>mogamulizumab Injection [Poteligeo]</t>
-  </si>
-  <si>
-    <t>2054085</t>
-  </si>
-  <si>
-    <t>Poteligeo Injectable Product</t>
-  </si>
-  <si>
-    <t>2054086</t>
-  </si>
-  <si>
-    <t>5 ML mogamulizumab-kpkc 4 MG/ML Injection [Poteligeo]</t>
-  </si>
-  <si>
-    <t>261585</t>
-  </si>
-  <si>
-    <t>Mylotarg</t>
   </si>
   <si>
     <t>System URI</t>
@@ -578,10 +572,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -685,43 +679,35 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -743,490 +729,490 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
